--- a/data/JD_OPEN PAY账单.xlsx
+++ b/data/JD_OPEN PAY账单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>19.9</t>
   </si>
@@ -32,25 +32,13 @@
     <t>204.0</t>
   </si>
   <si>
-    <t>2020-05-11 21:49:51</t>
-  </si>
-  <si>
     <t>1792785</t>
   </si>
   <si>
-    <t>2020-05-13 16:50:58</t>
-  </si>
-  <si>
     <t>1804392</t>
   </si>
   <si>
-    <t>2020-05-13 17:51:53</t>
-  </si>
-  <si>
     <t>1804918</t>
-  </si>
-  <si>
-    <t>2020-05-13 18:20:30</t>
   </si>
   <si>
     <t>1805219</t>
@@ -471,7 +459,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -484,86 +472,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="4">
+        <v>44146.909618055557</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="5">
         <v>19.899999999999999</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
+      <c r="A3" s="4">
+        <v>44147.909618055557</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
+      <c r="A4" s="4">
+        <v>44148.909618055557</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
+      <c r="A5" s="4">
+        <v>44149.909618055557</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43964.764236111114</v>
+        <v>44150.909618055557</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
